--- a/01-設計書/画面設計書.xlsx
+++ b/01-設計書/画面設計書.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計書" sheetId="2" r:id="rId1"/>
-    <sheet name="参照ドキュメント" sheetId="3" r:id="rId2"/>
+    <sheet name="Indexing方" sheetId="4" r:id="rId2"/>
+    <sheet name="参照ドキュメント" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -77,26 +78,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
   <si>
     <t>Input search</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Input search</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>L</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Parts</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Part of:</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>横向き画面</t>
@@ -106,7 +107,7 @@
     <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>縦向き画面</t>
@@ -116,14 +117,14 @@
     <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>凡例</t>
     <rPh sb="0" eb="2">
       <t>ハンレイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>①漢字を入れる所</t>
@@ -136,7 +137,7 @@
     <rPh sb="7" eb="8">
       <t>トコロ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>②漢字を大きく表示する所</t>
@@ -152,7 +153,7 @@
     <rPh sb="11" eb="12">
       <t>トコロ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>③漢字の部分を表示する所</t>
@@ -168,7 +169,7 @@
     <rPh sb="11" eb="12">
       <t>トコロ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>④検索した漢字を含んでいる漢字を表示する所</t>
@@ -190,11 +191,11 @@
     <rPh sb="20" eb="21">
       <t>トコロ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>⑤スクロール</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>⑥検索を行うボタン</t>
@@ -204,26 +205,26 @@
     <rPh sb="4" eb="5">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>漢</t>
     <rPh sb="0" eb="1">
       <t>カン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>②</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>③</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>http://en.wikipedia.org/wiki/Droid_fonts</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>http://developer.android.com/training/basics/firstapp/building-ui.html</t>
@@ -245,22 +246,22 @@
     <rPh sb="11" eb="13">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>リンク</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>http://developer.android.com/training/basics/supporting-devices/index.html</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>多画面サイズサポート</t>
@@ -270,36 +271,36 @@
     <rPh sb="1" eb="3">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Layoutについて</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>画面作成チュートリアル</t>
     <rPh sb="0" eb="4">
       <t>ガメンサクセイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Androidに有るフォント</t>
     <rPh sb="8" eb="9">
       <t>ア</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>テキストインプットルール設定</t>
     <rPh sb="12" eb="14">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Part 2</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -315,7 +316,7 @@
       </rPr>
       <t>art 1</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -331,11 +332,11 @@
       </rPr>
       <t>art 3</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>LinearLayout horizontal</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -351,26 +352,26 @@
       </rPr>
       <t>eight=1</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>width、height固定</t>
     <rPh sb="12" eb="14">
       <t>コテイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>LinearLayout</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>width-fill_parent</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>height-wrap_content</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -386,20 +387,228 @@
       </rPr>
       <t>eight-match_parent</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://code.google.com/p/aedict/</t>
+  </si>
+  <si>
+    <t>参照プロジェクト</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://lucene.apache.org/core/3_0_3/fileformats.html</t>
+  </si>
+  <si>
+    <t>Lucene file format</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/10048899/string-to-char-array-java</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/2952914/copy-text-from-textview-on-android</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/2220366/get-unicode-value-of-a-character</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://developer.android.com/about/versions/android-4.2.html</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/1748977/making-textview-scrollable-in-android</t>
+  </si>
+  <si>
+    <t>unicode value</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>保存媒体：</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バイタイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ファイルで</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ファイル構成：</t>
+    <rPh sb="4" eb="6">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>byte 1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>byte 2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>byte 3</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2 byte unicode value</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1 byte line number</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>byte 6</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>byte 4</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>byte 5</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://www.sqlite.org/lang_createtable.html</t>
+  </si>
+  <si>
+    <t>rowid table注意</t>
+    <rPh sb="11" eb="13">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/B-tree</t>
+  </si>
+  <si>
+    <t>sqliteで用いる技術</t>
+    <rPh sb="7" eb="8">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギジュツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>イニシャルkradfile保存所はrawresourceに</t>
+    <rPh sb="13" eb="15">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トコロ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://developer.android.com/guide/topics/resources/accessing-resources.html</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>database構造</t>
+    <rPh sb="8" eb="10">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>このFieldでPrimary Keyとする</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>radicals</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>part_of</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>行</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>34892(0x884C )</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>行 彳</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>衛街桁行衡術衝哘垳愆衍絎衒衙衞衢裄銜鵆</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>kradfile構造：</t>
+    <rPh sb="8" eb="10">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>radkfile構造</t>
+    <rPh sb="8" eb="10">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://developer.android.com/training/keyboard-input/style.html</t>
+  </si>
+  <si>
+    <t>Keyboard action</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://developer.android.com/guide/topics/ui/controls/text.html</t>
+  </si>
+  <si>
+    <t>もっとKeyboard action</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -515,6 +724,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -542,7 +760,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -840,178 +1058,285 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1292,6 +1617,186 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>406458</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>32217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="548640" y="701040"/>
+          <a:ext cx="9695238" cy="1342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>160021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28072</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10828020" y="327661"/>
+          <a:ext cx="4523872" cy="3581399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3611880" y="2887980"/>
+          <a:ext cx="4998720" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>sqlite</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を採用の為</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>450612</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>24430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="2377440"/>
+          <a:ext cx="6980952" cy="2676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1586,7 +2091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:CQ54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="G7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="BX25" sqref="BX25"/>
     </sheetView>
   </sheetViews>
@@ -1597,17 +2102,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:95" x14ac:dyDescent="0.2">
-      <c r="CE2" s="56" t="s">
+      <c r="CE2" s="38" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="4:95" x14ac:dyDescent="0.2">
-      <c r="CE3" s="56" t="s">
+      <c r="CE3" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="4:95" x14ac:dyDescent="0.2">
-      <c r="CE4" s="56" t="s">
+      <c r="CE4" s="38" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1735,10 +2240,10 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="31" t="s">
+      <c r="AD8" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AE8" s="32"/>
+      <c r="AE8" s="59"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
@@ -1748,7 +2253,7 @@
       <c r="AL8" s="8">
         <v>1</v>
       </c>
-      <c r="AM8" s="45" t="s">
+      <c r="AM8" s="71" t="s">
         <v>14</v>
       </c>
       <c r="AN8" s="9"/>
@@ -1771,12 +2276,12 @@
       <c r="BE8" s="9"/>
       <c r="BF8" s="10"/>
       <c r="BG8" s="5"/>
-      <c r="BH8" s="31" t="s">
+      <c r="BH8" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="BI8" s="32"/>
+      <c r="BI8" s="59"/>
       <c r="BJ8" s="7"/>
-      <c r="BN8" s="54" t="s">
+      <c r="BN8" s="36" t="s">
         <v>32</v>
       </c>
       <c r="BS8" s="8">
@@ -1803,11 +2308,11 @@
       <c r="CL8" s="9"/>
       <c r="CM8" s="10"/>
       <c r="CN8" s="5"/>
-      <c r="CO8" s="31" t="s">
+      <c r="CO8" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="CP8" s="32"/>
-      <c r="CQ8" s="54" t="s">
+      <c r="CP8" s="59"/>
+      <c r="CQ8" s="36" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1835,8 +2340,8 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="5"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="34"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="61"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -1844,7 +2349,7 @@
       <c r="AJ9" s="5"/>
       <c r="AK9" s="6"/>
       <c r="AL9" s="11"/>
-      <c r="AM9" s="46"/>
+      <c r="AM9" s="72"/>
       <c r="AN9" s="12"/>
       <c r="AO9" s="12"/>
       <c r="AP9" s="12"/>
@@ -1865,8 +2370,8 @@
       <c r="BE9" s="12"/>
       <c r="BF9" s="13"/>
       <c r="BG9" s="5"/>
-      <c r="BH9" s="33"/>
-      <c r="BI9" s="34"/>
+      <c r="BH9" s="60"/>
+      <c r="BI9" s="61"/>
       <c r="BJ9" s="7"/>
       <c r="BS9" s="11"/>
       <c r="BT9" s="12"/>
@@ -1890,8 +2395,8 @@
       <c r="CL9" s="12"/>
       <c r="CM9" s="13"/>
       <c r="CN9" s="5"/>
-      <c r="CO9" s="33"/>
-      <c r="CP9" s="34"/>
+      <c r="CO9" s="60"/>
+      <c r="CP9" s="61"/>
     </row>
     <row r="10" spans="4:95" x14ac:dyDescent="0.2">
       <c r="G10" s="6"/>
@@ -1954,10 +2459,10 @@
       </c>
       <c r="BI10" s="5"/>
       <c r="BJ10" s="7"/>
-      <c r="BS10" s="54" t="s">
+      <c r="BS10" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="BW10" s="54" t="s">
+      <c r="BW10" s="36" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1995,14 +2500,14 @@
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="6"/>
-      <c r="AL11" s="35" t="s">
+      <c r="AL11" s="31" t="s">
         <v>15</v>
       </c>
       <c r="AM11" s="5"/>
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
-      <c r="AQ11" s="35" t="s">
+      <c r="AQ11" s="31" t="s">
         <v>16</v>
       </c>
       <c r="AR11" s="5" t="s">
@@ -2065,13 +2570,13 @@
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="6"/>
-      <c r="AL12" s="36" t="s">
+      <c r="AL12" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="AM12" s="37"/>
-      <c r="AN12" s="37"/>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="38"/>
+      <c r="AM12" s="63"/>
+      <c r="AN12" s="63"/>
+      <c r="AO12" s="63"/>
+      <c r="AP12" s="64"/>
       <c r="AQ12" s="5"/>
       <c r="AR12" s="8"/>
       <c r="AS12" s="9"/>
@@ -2127,11 +2632,11 @@
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="6"/>
-      <c r="AL13" s="39"/>
-      <c r="AM13" s="40"/>
-      <c r="AN13" s="40"/>
-      <c r="AO13" s="40"/>
-      <c r="AP13" s="41"/>
+      <c r="AL13" s="65"/>
+      <c r="AM13" s="66"/>
+      <c r="AN13" s="66"/>
+      <c r="AO13" s="66"/>
+      <c r="AP13" s="67"/>
       <c r="AQ13" s="5"/>
       <c r="AR13" s="15"/>
       <c r="AS13" s="5"/>
@@ -2185,11 +2690,11 @@
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="6"/>
-      <c r="AL14" s="39"/>
-      <c r="AM14" s="40"/>
-      <c r="AN14" s="40"/>
-      <c r="AO14" s="40"/>
-      <c r="AP14" s="41"/>
+      <c r="AL14" s="65"/>
+      <c r="AM14" s="66"/>
+      <c r="AN14" s="66"/>
+      <c r="AO14" s="66"/>
+      <c r="AP14" s="67"/>
       <c r="AQ14" s="5"/>
       <c r="AR14" s="15"/>
       <c r="AS14" s="5"/>
@@ -2210,7 +2715,7 @@
       <c r="BH14" s="5"/>
       <c r="BI14" s="17"/>
       <c r="BJ14" s="7"/>
-      <c r="BN14" s="54" t="s">
+      <c r="BN14" s="36" t="s">
         <v>31</v>
       </c>
       <c r="BS14" s="8"/>
@@ -2219,29 +2724,29 @@
       <c r="BV14" s="9"/>
       <c r="BW14" s="10"/>
       <c r="BX14" s="5"/>
-      <c r="BY14" s="57" t="s">
+      <c r="BY14" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="BZ14" s="58"/>
-      <c r="CA14" s="58"/>
-      <c r="CB14" s="58"/>
-      <c r="CC14" s="58"/>
-      <c r="CD14" s="58"/>
-      <c r="CE14" s="58"/>
-      <c r="CF14" s="58"/>
-      <c r="CG14" s="58"/>
-      <c r="CH14" s="58"/>
-      <c r="CI14" s="58"/>
-      <c r="CJ14" s="58"/>
-      <c r="CK14" s="58"/>
-      <c r="CL14" s="58"/>
-      <c r="CM14" s="58"/>
-      <c r="CN14" s="58"/>
-      <c r="CO14" s="58"/>
-      <c r="CP14" s="59"/>
+      <c r="BZ14" s="40"/>
+      <c r="CA14" s="40"/>
+      <c r="CB14" s="40"/>
+      <c r="CC14" s="40"/>
+      <c r="CD14" s="40"/>
+      <c r="CE14" s="40"/>
+      <c r="CF14" s="40"/>
+      <c r="CG14" s="40"/>
+      <c r="CH14" s="40"/>
+      <c r="CI14" s="40"/>
+      <c r="CJ14" s="40"/>
+      <c r="CK14" s="40"/>
+      <c r="CL14" s="40"/>
+      <c r="CM14" s="40"/>
+      <c r="CN14" s="40"/>
+      <c r="CO14" s="40"/>
+      <c r="CP14" s="41"/>
     </row>
     <row r="15" spans="4:95" x14ac:dyDescent="0.2">
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="37" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="6"/>
@@ -2275,11 +2780,11 @@
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="6"/>
-      <c r="AL15" s="39"/>
-      <c r="AM15" s="40"/>
-      <c r="AN15" s="40"/>
-      <c r="AO15" s="40"/>
-      <c r="AP15" s="41"/>
+      <c r="AL15" s="65"/>
+      <c r="AM15" s="66"/>
+      <c r="AN15" s="66"/>
+      <c r="AO15" s="66"/>
+      <c r="AP15" s="67"/>
       <c r="AQ15" s="5"/>
       <c r="AR15" s="15"/>
       <c r="AS15" s="5"/>
@@ -2363,11 +2868,11 @@
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="6"/>
-      <c r="AL16" s="42"/>
-      <c r="AM16" s="43"/>
-      <c r="AN16" s="43"/>
-      <c r="AO16" s="43"/>
-      <c r="AP16" s="44"/>
+      <c r="AL16" s="68"/>
+      <c r="AM16" s="69"/>
+      <c r="AN16" s="69"/>
+      <c r="AO16" s="69"/>
+      <c r="AP16" s="70"/>
       <c r="AQ16" s="5"/>
       <c r="AR16" s="11"/>
       <c r="AS16" s="12"/>
@@ -3077,7 +3582,7 @@
       <c r="BH26" s="5"/>
       <c r="BI26" s="17"/>
       <c r="BJ26" s="7"/>
-      <c r="BN26" s="54" t="s">
+      <c r="BN26" s="36" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4036,7 +4541,7 @@
     <mergeCell ref="AM8:AM9"/>
     <mergeCell ref="CO8:CP9"/>
   </mergeCells>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4046,10 +4551,180 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C9"/>
+  <dimension ref="A3:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="13" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="C35" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="46"/>
+      <c r="C36" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="G38" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="L38" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="M38" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="N38" s="53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="28.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="H39" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="73"/>
+      <c r="J39" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="L39" s="73"/>
+      <c r="M39" s="52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="K39:L39"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4058,68 +4733,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+    <row r="2" spans="2:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="48" t="s">
+    <row r="3" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="49" t="s">
+    <row r="4" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="49" t="s">
+    <row r="5" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="49" t="s">
+    <row r="6" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="49" t="s">
+    <row r="7" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="49" t="s">
+    <row r="8" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
-      <c r="C9" s="53"/>
+    <row r="9" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="44"/>
+      <c r="C11" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="44"/>
+      <c r="C12" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="44"/>
+      <c r="C13" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="44"/>
+      <c r="C14" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="44"/>
+      <c r="C15" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="45"/>
+      <c r="C21" s="35"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1"/>
     <hyperlink ref="C7" r:id="rId2"/>
@@ -4127,6 +4888,10 @@
     <hyperlink ref="C5" r:id="rId4"/>
     <hyperlink ref="C4" r:id="rId5"/>
     <hyperlink ref="C3" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C14" r:id="rId9"/>
+    <hyperlink ref="C18" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01-設計書/画面設計書.xlsx
+++ b/01-設計書/画面設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計書" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>Input search</t>
     <phoneticPr fontId="5"/>
@@ -577,17 +577,36 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>Keyboard action</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://developer.android.com/guide/topics/ui/controls/text.html</t>
+  </si>
+  <si>
+    <t>もっとKeyboard action</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://re-dzine.net/2012/08/over-proxy-github/</t>
+  </si>
+  <si>
+    <t>set up git behind a proxy</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>http://developer.android.com/training/keyboard-input/style.html</t>
-  </si>
-  <si>
-    <t>Keyboard action</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>http://developer.android.com/guide/topics/ui/controls/text.html</t>
-  </si>
-  <si>
-    <t>もっとKeyboard action</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://developer.android.com/reference/android/widget/TextView.html#attr_android:imeOptions</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>参照：http://www.kanjicafe.com/kradfile_license.htm</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -760,7 +779,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1129,6 +1148,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1137,7 +1169,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1337,6 +1369,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2091,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:CQ54"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BX25" sqref="BX25"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BV17" sqref="BV17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4553,8 +4598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4689,6 +4734,9 @@
       <c r="C42" s="55"/>
       <c r="D42" s="55"/>
       <c r="E42" s="55"/>
+      <c r="G42" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B43" s="55"/>
@@ -4721,15 +4769,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C21"/>
+  <dimension ref="B1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="76.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4860,26 +4909,43 @@
       </c>
     </row>
     <row r="19" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="78"/>
+      <c r="C20" s="75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="44" t="s">
+    </row>
+    <row r="22" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="35"/>
+    </row>
+    <row r="23" spans="2:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="45"/>
+      <c r="C23" s="35"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B19:B20"/>
+  </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1"/>
@@ -4892,7 +4958,11 @@
     <hyperlink ref="C10" r:id="rId8"/>
     <hyperlink ref="C14" r:id="rId9"/>
     <hyperlink ref="C18" r:id="rId10"/>
+    <hyperlink ref="C19" r:id="rId11"/>
+    <hyperlink ref="C21" r:id="rId12"/>
+    <hyperlink ref="C20" r:id="rId13" location="attr_android:imeOptions"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/01-設計書/画面設計書.xlsx
+++ b/01-設計書/画面設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計書" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>Input search</t>
     <phoneticPr fontId="5"/>
@@ -507,16 +507,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>イニシャルkradfile保存所はrawresourceに</t>
-    <rPh sb="13" eb="15">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>トコロ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>http://developer.android.com/guide/topics/resources/accessing-resources.html</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -606,6 +596,43 @@
     <t>参照：http://www.kanjicafe.com/kradfile_license.htm</t>
     <rPh sb="0" eb="2">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://developer.android.com/guide/topics/text/copy-paste.html</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Copy and Paste貼り付け</t>
+    <rPh sb="14" eb="15">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://developer.android.com/guide/topics/search/search-dialog.html</t>
+  </si>
+  <si>
+    <t>Search機能</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>イニシャルkradfile保存所はrawresourceで保存</t>
+    <rPh sb="13" eb="15">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1322,60 +1349,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2136,7 +2163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:CQ54"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="BV17" sqref="BV17"/>
     </sheetView>
   </sheetViews>
@@ -2285,10 +2312,10 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="58" t="s">
+      <c r="AD8" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AE8" s="59"/>
+      <c r="AE8" s="62"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
@@ -2298,7 +2325,7 @@
       <c r="AL8" s="8">
         <v>1</v>
       </c>
-      <c r="AM8" s="71" t="s">
+      <c r="AM8" s="74" t="s">
         <v>14</v>
       </c>
       <c r="AN8" s="9"/>
@@ -2321,10 +2348,10 @@
       <c r="BE8" s="9"/>
       <c r="BF8" s="10"/>
       <c r="BG8" s="5"/>
-      <c r="BH8" s="58" t="s">
+      <c r="BH8" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="BI8" s="59"/>
+      <c r="BI8" s="62"/>
       <c r="BJ8" s="7"/>
       <c r="BN8" s="36" t="s">
         <v>32</v>
@@ -2353,10 +2380,10 @@
       <c r="CL8" s="9"/>
       <c r="CM8" s="10"/>
       <c r="CN8" s="5"/>
-      <c r="CO8" s="58" t="s">
+      <c r="CO8" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="CP8" s="59"/>
+      <c r="CP8" s="62"/>
       <c r="CQ8" s="36" t="s">
         <v>36</v>
       </c>
@@ -2385,8 +2412,8 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="5"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="61"/>
+      <c r="AD9" s="63"/>
+      <c r="AE9" s="64"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -2394,7 +2421,7 @@
       <c r="AJ9" s="5"/>
       <c r="AK9" s="6"/>
       <c r="AL9" s="11"/>
-      <c r="AM9" s="72"/>
+      <c r="AM9" s="75"/>
       <c r="AN9" s="12"/>
       <c r="AO9" s="12"/>
       <c r="AP9" s="12"/>
@@ -2415,8 +2442,8 @@
       <c r="BE9" s="12"/>
       <c r="BF9" s="13"/>
       <c r="BG9" s="5"/>
-      <c r="BH9" s="60"/>
-      <c r="BI9" s="61"/>
+      <c r="BH9" s="63"/>
+      <c r="BI9" s="64"/>
       <c r="BJ9" s="7"/>
       <c r="BS9" s="11"/>
       <c r="BT9" s="12"/>
@@ -2440,8 +2467,8 @@
       <c r="CL9" s="12"/>
       <c r="CM9" s="13"/>
       <c r="CN9" s="5"/>
-      <c r="CO9" s="60"/>
-      <c r="CP9" s="61"/>
+      <c r="CO9" s="63"/>
+      <c r="CP9" s="64"/>
     </row>
     <row r="10" spans="4:95" x14ac:dyDescent="0.2">
       <c r="G10" s="6"/>
@@ -2615,13 +2642,13 @@
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="6"/>
-      <c r="AL12" s="62" t="s">
+      <c r="AL12" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="AM12" s="63"/>
-      <c r="AN12" s="63"/>
-      <c r="AO12" s="63"/>
-      <c r="AP12" s="64"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="66"/>
+      <c r="AP12" s="67"/>
       <c r="AQ12" s="5"/>
       <c r="AR12" s="8"/>
       <c r="AS12" s="9"/>
@@ -2677,11 +2704,11 @@
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="6"/>
-      <c r="AL13" s="65"/>
-      <c r="AM13" s="66"/>
-      <c r="AN13" s="66"/>
-      <c r="AO13" s="66"/>
-      <c r="AP13" s="67"/>
+      <c r="AL13" s="68"/>
+      <c r="AM13" s="69"/>
+      <c r="AN13" s="69"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="70"/>
       <c r="AQ13" s="5"/>
       <c r="AR13" s="15"/>
       <c r="AS13" s="5"/>
@@ -2735,11 +2762,11 @@
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="6"/>
-      <c r="AL14" s="65"/>
-      <c r="AM14" s="66"/>
-      <c r="AN14" s="66"/>
-      <c r="AO14" s="66"/>
-      <c r="AP14" s="67"/>
+      <c r="AL14" s="68"/>
+      <c r="AM14" s="69"/>
+      <c r="AN14" s="69"/>
+      <c r="AO14" s="69"/>
+      <c r="AP14" s="70"/>
       <c r="AQ14" s="5"/>
       <c r="AR14" s="15"/>
       <c r="AS14" s="5"/>
@@ -2825,11 +2852,11 @@
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="6"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="66"/>
-      <c r="AN15" s="66"/>
-      <c r="AO15" s="66"/>
-      <c r="AP15" s="67"/>
+      <c r="AL15" s="68"/>
+      <c r="AM15" s="69"/>
+      <c r="AN15" s="69"/>
+      <c r="AO15" s="69"/>
+      <c r="AP15" s="70"/>
       <c r="AQ15" s="5"/>
       <c r="AR15" s="15"/>
       <c r="AS15" s="5"/>
@@ -2913,11 +2940,11 @@
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="6"/>
-      <c r="AL16" s="68"/>
-      <c r="AM16" s="69"/>
-      <c r="AN16" s="69"/>
-      <c r="AO16" s="69"/>
-      <c r="AP16" s="70"/>
+      <c r="AL16" s="71"/>
+      <c r="AM16" s="72"/>
+      <c r="AN16" s="72"/>
+      <c r="AO16" s="72"/>
+      <c r="AP16" s="73"/>
       <c r="AQ16" s="5"/>
       <c r="AR16" s="11"/>
       <c r="AS16" s="12"/>
@@ -4598,8 +4625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4614,22 +4641,22 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B34" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="39.6" x14ac:dyDescent="0.2">
       <c r="C35" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -4638,10 +4665,10 @@
         <v>50</v>
       </c>
       <c r="D36" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="46" t="s">
         <v>71</v>
-      </c>
-      <c r="E36" s="46" t="s">
-        <v>72</v>
       </c>
       <c r="G36" s="48" t="s">
         <v>51</v>
@@ -4652,19 +4679,19 @@
     </row>
     <row r="37" spans="1:14" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="D37" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="55" t="s">
+      <c r="E37" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="E37" s="56" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
@@ -4702,17 +4729,17 @@
       <c r="C39" s="55"/>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
-      <c r="H39" s="73" t="s">
+      <c r="H39" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="I39" s="73"/>
+      <c r="I39" s="76"/>
       <c r="J39" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="K39" s="73" t="s">
+      <c r="K39" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="L39" s="73"/>
+      <c r="L39" s="76"/>
       <c r="M39" s="52" t="s">
         <v>58</v>
       </c>
@@ -4735,7 +4762,7 @@
       <c r="D42" s="55"/>
       <c r="E42" s="55"/>
       <c r="G42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -4769,10 +4796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C23"/>
+  <dimension ref="B1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4902,45 +4929,61 @@
     </row>
     <row r="18" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="35" t="s">
         <v>67</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>85</v>
+        <v>79</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="78"/>
-      <c r="C20" s="75" t="s">
-        <v>86</v>
+      <c r="C20" s="59" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="74" t="s">
         <v>81</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="45"/>
-      <c r="C23" s="35"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="45"/>
+      <c r="C25" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/01-設計書/画面設計書.xlsx
+++ b/01-設計書/画面設計書.xlsx
@@ -10,8 +10,9 @@
     <sheet name="画面設計書" sheetId="2" r:id="rId1"/>
     <sheet name="Indexing方" sheetId="4" r:id="rId2"/>
     <sheet name="参照ドキュメント" sheetId="3" r:id="rId3"/>
+    <sheet name="TextClick" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="108">
   <si>
     <t>Input search</t>
     <phoneticPr fontId="5"/>
@@ -634,6 +635,82 @@
     <rPh sb="29" eb="31">
       <t>ホゾン</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://www.chrisumbel.com/article/android_textview_rich_text_spannablestring</t>
+  </si>
+  <si>
+    <t>Clickable textView</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/15529806/how-to-highlite-word-which-is-click-in-textview-android</t>
+  </si>
+  <si>
+    <t>単純なString</t>
+    <rPh sb="0" eb="2">
+      <t>タンジュン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>か</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>き</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>く</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>け</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>こ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>な</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>に</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SpannableString</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⇐一つの分子はsetSpan()で分解します</t>
+    <rPh sb="1" eb="2">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ブンカイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>setSpanにclickableSpanを入れる</t>
+    <rPh sb="22" eb="23">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/11497241/get-width-of-textview-in-characters?lq=1</t>
+  </si>
+  <si>
+    <t>Total characters that can be fit into TextView's one line of text</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -806,7 +883,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1188,6 +1265,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1196,7 +1321,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1410,6 +1535,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -4796,10 +4925,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C25"/>
+  <dimension ref="B1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4981,9 +5110,31 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-      <c r="C25" s="35"/>
+    <row r="25" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="44"/>
+      <c r="C26" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="45"/>
+      <c r="C28" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5008,4 +5159,91 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="10" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D5" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D8" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>